--- a/Tablas_comparaciones.xlsx
+++ b/Tablas_comparaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\R_SAI\Coca-Cola\Mensajes_SMR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1488FB5-B41E-47DE-B0AD-4F22B0F2F5E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327805B7-AF40-42DF-A735-A6836482B74F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{76BFC3B1-F6DB-4642-9E96-53E189306472}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{76BFC3B1-F6DB-4642-9E96-53E189306472}"/>
   </bookViews>
   <sheets>
     <sheet name="PIB_PAISES" sheetId="1" r:id="rId1"/>
@@ -918,7 +918,7 @@
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C2BFEA-1F94-4BCC-B739-DA18B94B79F6}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1175,111 +1175,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD7AC9FE-193A-4DEB-A713-679FA5970DD2}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="51" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B1" s="19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="8">
+      <c r="B2" s="8">
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="7">
+      <c r="B3" s="7">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7">
+      <c r="B4" s="7">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
+      <c r="B5" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27" t="s">
+    <row r="6" spans="1:2" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="9">
+      <c r="B6" s="9">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+    <row r="7" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="7">
+      <c r="B7" s="7">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7">
+      <c r="B8" s="7">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="7">
+      <c r="B9" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7">
+      <c r="B10" s="7">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="7">
+      <c r="B11" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="7">
+      <c r="B12" s="7">
         <v>2E-3</v>
       </c>
     </row>
@@ -1290,79 +1290,79 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8CAA71-ABC1-4237-9A70-E4DFD676E3C3}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B1" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="10">
+      <c r="B2" s="10">
         <v>1443009</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+    <row r="3" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11">
+      <c r="B3" s="11">
         <v>1395794</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="11">
+      <c r="B4" s="11">
         <v>1347932</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11">
+      <c r="B5" s="11">
         <v>1252363</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="11">
+      <c r="B6" s="11">
         <v>967319</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="11">
+      <c r="B7" s="11">
         <v>771294</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11">
+      <c r="B8" s="11">
         <v>760333</v>
       </c>
     </row>
@@ -1373,325 +1373,325 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438D9549-5C9C-49C9-BDD6-BF5C133A4831}">
-  <dimension ref="B2:E23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="14">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1830835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1736099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1692644</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1673165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1645986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1499330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1446305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1443009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1405216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1830835</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="C11" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1184801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1130172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1106817</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1736099</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
-        <v>3</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="C14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1051870</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="11">
+        <v>947345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="11">
+        <v>945974</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="11">
+        <v>941675</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="11">
+        <v>936373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1692644</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
-        <v>4</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1673165</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
-        <v>5</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1645986</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
-        <v>6</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1499330</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14">
-        <v>7</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="C19" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="11">
+        <v>926382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1446305</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29">
-        <v>8</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1443009</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
-        <v>9</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1405216</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1184801</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
-        <v>11</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="C20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="11">
+        <v>924455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="11">
+        <v>919332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1130172</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
-        <v>12</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="11">
-        <v>1106817</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
-        <v>13</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="11">
-        <v>1051870</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
-        <v>14</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="11">
-        <v>947345</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="11">
-        <v>945974</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="11">
-        <v>941675</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
-        <v>17</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="11">
-        <v>936373</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
-        <v>18</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="11">
-        <v>926382</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
-        <v>19</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="11">
-        <v>924455</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
-        <v>20</v>
-      </c>
       <c r="C22" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="11">
-        <v>919332</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
-        <v>21</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="11">
+      <c r="D22" s="11">
         <v>898554</v>
       </c>
     </row>
@@ -1702,258 +1702,258 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D50C163-76D5-4EB1-B240-74FEE4867A4E}">
-  <dimension ref="B2:D23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="B1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="14">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="B2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="11">
+      <c r="C2" s="11">
         <v>297073</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="B3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="11">
+      <c r="C3" s="11">
         <v>234431</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="14">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="B4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="11">
+      <c r="C4" s="11">
         <v>189447</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="B5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="11">
+      <c r="C5" s="11">
         <v>138432</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="B6" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="11">
+      <c r="C6" s="11">
         <v>128021</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="B7" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="11">
+      <c r="C7" s="11">
         <v>119340</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="30">
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="B8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12">
+      <c r="C8" s="12">
         <v>104827</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+    <row r="9" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="B9" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="11">
+      <c r="C9" s="11">
         <v>97154</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="B10" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="11">
+      <c r="C10" s="11">
         <v>86340</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="B11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="11">
+      <c r="C11" s="11">
         <v>86247</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="B12" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="11">
+      <c r="C12" s="11">
         <v>75120</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="B13" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="11">
+      <c r="C13" s="11">
         <v>74989</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="B14" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="11">
+      <c r="C14" s="11">
         <v>73438</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="B15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="11">
+      <c r="C15" s="11">
         <v>67306</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="B16" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="11">
+      <c r="C16" s="11">
         <v>62222</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="B17" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="11">
+      <c r="C17" s="11">
         <v>52442</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="B18" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="11">
+      <c r="C18" s="11">
         <v>51200</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="B19" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="11">
+      <c r="C19" s="11">
         <v>42141</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="B20" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="11">
+      <c r="C20" s="11">
         <v>42000</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="B21" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="11">
+      <c r="C21" s="11">
         <v>41470</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="B22" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="11">
+      <c r="C22" s="11">
         <v>40620</v>
       </c>
     </row>
